--- a/TestData/LV_TMTI0063910_VerifyCounterpartiesDetailsAreMappedFromOpportunityToEngagementAfterConversion.xlsx
+++ b/TestData/LV_TMTI0063910_VerifyCounterpartiesDetailsAreMappedFromOpportunityToEngagementAfterConversion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D64782-5230-46C9-96D9-1D62A43B0FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B15A531-663F-4524-8530-C55B55D847DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="548" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="548" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StandardUsers" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
   <si>
     <t>James Craven</t>
   </si>
@@ -298,9 +298,6 @@
     <t>Counter-Party-List.csv</t>
   </si>
   <si>
-    <t>Kristian M. Whalen</t>
-  </si>
-  <si>
     <t>IndustryGroup/HLSector</t>
   </si>
   <si>
@@ -313,13 +310,19 @@
     <t>Internal</t>
   </si>
   <si>
+    <t>BUS - Business Services</t>
+  </si>
+  <si>
+    <t>Jennie Stewart</t>
+  </si>
+  <si>
     <t>C:\Users\vijay.kumar\Downloads\</t>
   </si>
   <si>
-    <t>BUS - Business Services</t>
-  </si>
-  <si>
-    <t>Brian Miller</t>
+    <t>MassEditComments</t>
+  </si>
+  <si>
+    <t>These are counterparty comments from Counterparty List page</t>
   </si>
 </sst>
 </file>
@@ -714,7 +717,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +735,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -740,10 +743,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
         <v>86</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -811,7 +814,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,7 +855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD13242-055E-41A8-80D8-6F50F1B57F7C}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -872,7 +875,7 @@
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>24</v>
@@ -964,7 +967,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
         <v>51</v>
@@ -1052,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751812A8-ABA8-4232-9D81-14F299F55479}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,9 +1068,10 @@
     <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1087,11 @@
       <c r="E1" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1095,15 +1102,18 @@
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1116,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2CDCD2-7F5E-40FD-BAB3-4BCEC31CD21E}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,7 +1185,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
